--- a/members.xlsx
+++ b/members.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miapham/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miapham/Downloads/VOX_Web/VOX Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54DD81D-6214-8341-A085-82B347A6D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6CC11-6DC9-2545-A233-4EA109BC2BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1000" windowWidth="26680" windowHeight="16440" xr2:uid="{EF33C9B4-EF3B-5640-9037-F12B4EDFF4DF}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>MAJOR</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>Nguyen Duc An</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/MapuXD</t>
+  </si>
+  <si>
+    <t>CONTACT LINK</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,109 +510,109 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
